--- a/CH4/Soil Inventory Ecuador Update.xlsx
+++ b/CH4/Soil Inventory Ecuador Update.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="35">
   <si>
     <t>Site</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Two falcon with same tag</t>
+  </si>
+  <si>
+    <t>Indicates that they were found in the lab in Ecuador, but were not recorded in notes</t>
   </si>
 </sst>
 </file>
@@ -462,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N55" sqref="N55"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -473,7 +476,7 @@
     <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,7 +496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -514,7 +517,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -536,8 +539,11 @@
       <c r="G3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I3" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -558,7 +564,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -581,7 +587,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -604,7 +610,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -627,7 +633,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -650,7 +656,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -673,7 +679,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -696,7 +702,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -719,7 +725,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -742,7 +748,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -765,7 +771,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -788,7 +794,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -811,7 +817,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>

--- a/CH4/Soil Inventory Ecuador Update.xlsx
+++ b/CH4/Soil Inventory Ecuador Update.xlsx
@@ -467,13 +467,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97:F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
